--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007853</t>
+          <t>159966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商计算机行业量化股票</t>
+          <t>华夏创业板低波蓝筹ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>168701</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168702</t>
+          <t>160529</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+          <t>博时创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160529</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时创业板两年定期开放混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.94</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>007853</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>华商计算机行业量化股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>168701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010505</t>
+          <t>005459</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票C</t>
+          <t>银河嘉谊灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159966</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏创业板低波蓝筹ETF</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.34</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005443</t>
+          <t>005460</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国金量化多策略灵活配置混合</t>
+          <t>银河嘉谊灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005459</t>
+          <t>168702</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合A</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>43.71</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005460</t>
+          <t>010505</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合C</t>
+          <t>申万菱信创业板量化精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>43.71</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004394</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化创优灵活配置混合</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004951</t>
+          <t>004607</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信价值优利混合</t>
+          <t>长信利尚一年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>004951</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>申万菱信价值优利混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.65</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>004394</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>005870</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>鹏华沪深300指数增强</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>168701</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>008072</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>景顺长城创业板综指增强</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168701</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>168702</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005870</t>
+          <t>168702</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华沪深300指数增强</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008072</t>
+          <t>010505</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城创业板综指增强</t>
+          <t>申万菱信创业板量化精选股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004607</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信利尚一年定期开放混合</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1266,26 +1546,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010505</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1554,7 +1555,6 @@
           <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>91.65</t>
@@ -1570,6 +1570,250 @@
       </c>
       <c r="H17" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1819,4 +1820,1422 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3217,7 +3218,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>91.13</t>
@@ -3233,6 +3233,106 @@
       </c>
       <c r="H37" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3246,7 +3247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,17 +3258,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3277,14 +3298,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.16</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3293,14 +3336,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3309,14 +3374,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.44</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3325,13 +3412,3408 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001538</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根科技前沿灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0859</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8707</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7812</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6784</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6384</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5890</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4984</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6712,7 +6713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6723,17 +6724,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6743,14 +6764,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.35</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6759,14 +6802,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.16</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6775,14 +6840,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6791,14 +6878,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.44</v>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6807,13 +6916,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5972</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5743</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7567,7 +7568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7578,17 +7579,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7598,14 +7619,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.98</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7614,14 +7657,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.35</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7630,14 +7695,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.16</v>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7646,14 +7733,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7662,14 +7771,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.44</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -7678,13 +7809,1200 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>12.75</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>16.98</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>12.16</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0730</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1900,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2754,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6219,7 +6976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7636,7 +8393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7880,7 +8637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8537,7 +9294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
+++ b/数据整理/stocks/A股/创业板/300033-同花顺.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>10.14</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>12.75</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>16.98</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>35.35</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>12.16</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -616,7 +633,3112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3724</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9847</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4642</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定开混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红新海混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015412</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014850</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015413</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>017493</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014851</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>017535</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2657,7 +5779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3511,7 +6633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6976,7 +10098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8393,7 +11515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8637,7 +11759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9292,478 +12414,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159966</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏创业板低波蓝筹ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5607</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009557</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3573</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160529</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1573</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1247</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007853</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商计算机行业量化股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168702</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010505</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>